--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morten Lang\source\repos\7SegmentClock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EFC107-9FDA-4C79-9341-C77FD188153D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0D4897-0C42-4286-8F7D-9DDDFA9A827D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30705" yWindow="1455" windowWidth="17970" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="38700" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Item</t>
   </si>
@@ -105,13 +105,16 @@
   </si>
   <si>
     <t>https://www.aliexpress.com/item/4001142557350.html?spm=a2g0o.productlist.main.10.d60a312cqoQxDZ&amp;algo_pvid=a335f70c-9119-48f6-942a-d04c84a08be3&amp;algo_exp_id=a335f70c-9119-48f6-942a-d04c84a08be3-9&amp;pdp_ext_f=%7B%22order%22%3A%2222%22%2C%22eval%22%3A%221%22%7D&amp;pdp_npi=6%40dis%21DKK%2178.99%2150.55%21%21%2186.56%2155.40%21%4021038df617561097007516462ec761%2110000014882411470%21sea%21DK%21858008885%21X%211%210%21n_tag%3A-29919%3Bd%3A5a7d78db%3Bm03_new_user%3A-29895&amp;curPageLogUid=jYMhtkVZFTlC&amp;utparam-url=scene%3Asearch%7Cquery_from%3A%7Cx_object_id%3A4001142557350%7C_p_origin_prod%3A</t>
+  </si>
+  <si>
+    <t>M3 Bolts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +127,14 @@
       <color rgb="FF1F2328"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,14 +154,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -432,7 +446,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +553,7 @@
       <c r="D6">
         <v>17.12</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -610,6 +624,11 @@
       </c>
       <c r="E10" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -619,6 +638,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" display="https://www.aliexpress.com/item/1005007469640237.html?productId=1005007469640237&amp;selectedSkuId=12000040884196834&amp;channel=detailPageDealCombineFloor&amp;combineBizType=platformFreeShipping&amp;intent_extra_sku_from=from_add_to_shopcart&amp;type=mergeorder&amp;pdp_npi=4%40dis%21DKK%2117.72%2117.12%21%21%2119.26%2118.61%21%402103917f17562764225773618edf1a%2112000040884196834%21fus%21DK%21858008885%21X&amp;trackParams=%7B%22businessScenario%22%3A%22choiceV2%22%2C%22activityType%22%3A%22CHOICE_FREE_SHIPPING%22%7D&amp;spm=a2g0o.detail.fusionpage.0" xr:uid="{E61B899D-5ACA-4711-8FAB-F286C967E51E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>